--- a/applications/SHIELD/support/contactTracing1.xlsx
+++ b/applications/SHIELD/support/contactTracing1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="15" documentId="8_{B3072B77-8F0F-2842-9A51-5929F5064928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D91E798-2D1D-6742-9DF6-042295D4B653}"/>
   <bookViews>
-    <workbookView xWindow="73300" yWindow="720" windowWidth="37540" windowHeight="17440" xr2:uid="{B47A3F01-3C2A-774F-B5A4-9BB5BDC5E9A9}"/>
+    <workbookView xWindow="340" yWindow="720" windowWidth="37540" windowHeight="17440" xr2:uid="{B47A3F01-3C2A-774F-B5A4-9BB5BDC5E9A9}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -5793,7 +5793,7 @@
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:I48"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>

--- a/applications/SHIELD/support/contactTracing1.xlsx
+++ b/applications/SHIELD/support/contactTracing1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/pkasaie1_jh_edu/Documents/SHIELDR01/Simulation/code/jheem_analyses/applications/SHIELD/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{B3072B77-8F0F-2842-9A51-5929F5064928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D91E798-2D1D-6742-9DF6-042295D4B653}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{B3072B77-8F0F-2842-9A51-5929F5064928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF25111C-2DE4-8140-8503-05119C341CC6}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="720" windowWidth="37540" windowHeight="17440" xr2:uid="{B47A3F01-3C2A-774F-B5A4-9BB5BDC5E9A9}"/>
   </bookViews>
@@ -4155,7 +4155,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4177,6 +4177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4246,7 +4252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4347,6 +4353,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4359,31 +4368,43 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4395,20 +4416,11 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5792,8 +5804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211859D2-F9E3-484D-87E1-D018F56AE5AF}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5811,17 +5823,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -5835,7 +5847,7 @@
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="36" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6524,17 +6536,17 @@
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:12" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -6575,10 +6587,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="58">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -6612,33 +6624,33 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
     </row>
     <row r="49" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
     </row>
     <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="36" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6658,20 +6670,20 @@
       </c>
     </row>
     <row r="56" spans="1:9" s="26" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
     </row>
     <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="36" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6816,20 +6828,20 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
     </row>
     <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6939,7 +6951,7 @@
       <c r="I85" s="26"/>
     </row>
     <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="36" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6955,15 +6967,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="37" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="36"/>
+      <c r="A91" s="37"/>
     </row>
     <row r="92" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="36"/>
+      <c r="A92" s="37"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
@@ -7006,30 +7018,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="41"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="41"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="5" t="s">
         <v>90</v>
       </c>
@@ -7039,30 +7051,30 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="11">
         <v>1998</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="40" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="7">
         <v>0.09</v>
       </c>
@@ -7072,30 +7084,30 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="11">
         <v>1999</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="41"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="44"/>
       <c r="M3" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7105,30 +7117,30 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="45">
+      <c r="D4" s="44"/>
+      <c r="E4" s="47">
         <v>1991</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="9">
         <v>1991</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="41"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="7">
         <v>0.3</v>
       </c>
@@ -7138,30 +7150,30 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="4">
         <v>1994</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="45">
+      <c r="I5" s="44"/>
+      <c r="J5" s="47">
         <v>156</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="46"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="7">
         <v>0.05</v>
       </c>
@@ -7171,30 +7183,30 @@
       <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="4">
         <v>2001</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="40" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="41"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="7">
         <v>0.28999999999999998</v>
       </c>
@@ -7204,30 +7216,30 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="4">
         <v>2001</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="43" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="44"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="7">
         <v>0.12</v>
       </c>
@@ -7237,30 +7249,30 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="4">
         <v>1994</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="40" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="41"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="7">
         <v>0.32</v>
       </c>
@@ -7270,30 +7282,30 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="4">
         <v>1994</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="43" t="s">
+      <c r="I9" s="44"/>
+      <c r="J9" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="44"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="7">
         <v>0.3</v>
       </c>
@@ -7303,30 +7315,30 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="40" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="4">
         <v>1994</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="40" t="s">
+      <c r="I10" s="44"/>
+      <c r="J10" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="41"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="7">
         <v>0.33</v>
       </c>
@@ -7336,30 +7348,30 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="40" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4">
         <v>1994</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="43" t="s">
+      <c r="I11" s="44"/>
+      <c r="J11" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="44"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
       <c r="M11" s="7">
         <v>0.39</v>
       </c>
@@ -7369,30 +7381,30 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="40" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="4">
         <v>1994</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="40" t="s">
+      <c r="I12" s="44"/>
+      <c r="J12" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="41"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="7">
         <v>0.26</v>
       </c>
@@ -7402,30 +7414,30 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="45">
+      <c r="D13" s="44"/>
+      <c r="E13" s="47">
         <v>1976</v>
       </c>
-      <c r="F13" s="46"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="9">
         <v>1976</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="45">
+      <c r="I13" s="44"/>
+      <c r="J13" s="47">
         <v>811</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="46"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
       <c r="M13" s="7">
         <v>0.2</v>
       </c>
@@ -7435,30 +7447,30 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="40" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="4">
         <v>1990</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="45">
+      <c r="I14" s="44"/>
+      <c r="J14" s="47">
         <v>300</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="46"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="49"/>
       <c r="M14" s="7">
         <v>0.15</v>
       </c>
@@ -7468,30 +7480,30 @@
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="4">
         <v>1991</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="43" t="s">
+      <c r="I15" s="44"/>
+      <c r="J15" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="44"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <v>0.18</v>
       </c>
@@ -7501,30 +7513,30 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="4">
         <v>1991</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="43" t="s">
+      <c r="I16" s="44"/>
+      <c r="J16" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="44"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="7">
         <v>0.22</v>
       </c>
@@ -7534,30 +7546,30 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="40" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="4">
         <v>1991</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="43" t="s">
+      <c r="I17" s="44"/>
+      <c r="J17" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="44"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="7">
         <v>0.22</v>
       </c>
@@ -7567,30 +7579,30 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="40" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="11">
         <v>1999</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="40" t="s">
+      <c r="I18" s="44"/>
+      <c r="J18" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="41"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="7">
         <v>0.17</v>
       </c>
@@ -7600,30 +7612,30 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="40" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="40" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="41"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="4">
         <v>1984</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="43" t="s">
+      <c r="I19" s="44"/>
+      <c r="J19" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="44"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="7">
         <v>0.23</v>
       </c>
@@ -7633,30 +7645,30 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="40" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="45">
+      <c r="D20" s="44"/>
+      <c r="E20" s="47">
         <v>1998</v>
       </c>
-      <c r="F20" s="46"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="9">
         <v>1998</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="45">
+      <c r="I20" s="44"/>
+      <c r="J20" s="47">
         <v>48</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="46"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="7">
         <v>0.38</v>
       </c>
@@ -7666,30 +7678,30 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="40" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="45">
+      <c r="D21" s="44"/>
+      <c r="E21" s="47">
         <v>1992</v>
       </c>
-      <c r="F21" s="46"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="9">
         <v>1992</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="45">
+      <c r="I21" s="44"/>
+      <c r="J21" s="47">
         <v>118</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="46"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="7">
         <v>0.46</v>
       </c>
@@ -7699,28 +7711,28 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="40" t="s">
+      <c r="D22" s="44"/>
+      <c r="E22" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="40" t="s">
+      <c r="I22" s="44"/>
+      <c r="J22" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="41"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="7">
         <v>0.25</v>
       </c>
@@ -7730,28 +7742,28 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="40" t="s">
+      <c r="D23" s="44"/>
+      <c r="E23" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="40" t="s">
+      <c r="I23" s="44"/>
+      <c r="J23" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="41"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="44"/>
       <c r="M23" s="7">
         <v>0.37</v>
       </c>
@@ -7761,28 +7773,28 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="40" t="s">
+      <c r="D24" s="44"/>
+      <c r="E24" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="40" t="s">
+      <c r="I24" s="44"/>
+      <c r="J24" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="41"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="44"/>
       <c r="M24" s="7">
         <v>0.4</v>
       </c>
@@ -7792,28 +7804,28 @@
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="40" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="40" t="s">
+      <c r="D25" s="44"/>
+      <c r="E25" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="43" t="s">
+      <c r="I25" s="44"/>
+      <c r="J25" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="44"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="7">
         <v>0.43</v>
       </c>
@@ -7823,28 +7835,28 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="40" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="40" t="s">
+      <c r="I26" s="44"/>
+      <c r="J26" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="41"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -7854,28 +7866,28 @@
       <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="40" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="40" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="40" t="s">
+      <c r="I27" s="44"/>
+      <c r="J27" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="41"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="44"/>
       <c r="M27" s="7">
         <v>0.17</v>
       </c>
@@ -7885,28 +7897,28 @@
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="40" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="43" t="s">
+      <c r="D28" s="44"/>
+      <c r="E28" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="49">
+      <c r="I28" s="44"/>
+      <c r="J28" s="54">
         <v>37382</v>
       </c>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="7">
         <v>0.2</v>
       </c>
@@ -7916,28 +7928,28 @@
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="40" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="40" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="49">
+      <c r="I29" s="44"/>
+      <c r="J29" s="54">
         <v>12284</v>
       </c>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
       <c r="M29" s="7">
         <v>0.28000000000000003</v>
       </c>
@@ -7947,28 +7959,28 @@
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="40" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="45">
+      <c r="D30" s="44"/>
+      <c r="E30" s="47">
         <v>1975</v>
       </c>
-      <c r="F30" s="46"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="40" t="s">
+      <c r="I30" s="44"/>
+      <c r="J30" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="41"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="44"/>
       <c r="M30" s="7">
         <v>0.23</v>
       </c>
@@ -7978,28 +7990,28 @@
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="40" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="45">
+      <c r="D31" s="44"/>
+      <c r="E31" s="47">
         <v>1975</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="43" t="s">
+      <c r="I31" s="44"/>
+      <c r="J31" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="44"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
       <c r="M31" s="7">
         <v>0.12</v>
       </c>
@@ -8009,28 +8021,28 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="40" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="40" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="40" t="s">
+      <c r="H32" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="43" t="s">
+      <c r="I32" s="44"/>
+      <c r="J32" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="44"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
       <c r="M32" s="7">
         <v>0.25</v>
       </c>
@@ -8040,28 +8052,28 @@
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="40" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="45">
+      <c r="D33" s="44"/>
+      <c r="E33" s="47">
         <v>1975</v>
       </c>
-      <c r="F33" s="46"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="40" t="s">
+      <c r="I33" s="44"/>
+      <c r="J33" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="41"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="44"/>
       <c r="M33" s="7">
         <v>0.57999999999999996</v>
       </c>
@@ -8071,28 +8083,28 @@
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="40" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="40" t="s">
+      <c r="D34" s="44"/>
+      <c r="E34" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="40" t="s">
+      <c r="H34" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="40" t="s">
+      <c r="I34" s="44"/>
+      <c r="J34" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="41"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="44"/>
       <c r="M34" s="7">
         <v>0.38</v>
       </c>
@@ -8102,28 +8114,28 @@
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="40" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="40" t="s">
+      <c r="D35" s="44"/>
+      <c r="E35" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="40" t="s">
+      <c r="H35" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="40" t="s">
+      <c r="I35" s="44"/>
+      <c r="J35" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="41"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="44"/>
       <c r="M35" s="7">
         <v>0.52</v>
       </c>
@@ -8133,28 +8145,28 @@
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="40" t="s">
+      <c r="B36" s="44"/>
+      <c r="C36" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="40" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="43" t="s">
+      <c r="I36" s="44"/>
+      <c r="J36" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="44"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
       <c r="M36" s="7">
         <v>0.24</v>
       </c>
@@ -8164,28 +8176,28 @@
       <c r="O36" s="13"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="40" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="40" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F37" s="41"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="43" t="s">
+      <c r="I37" s="44"/>
+      <c r="J37" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="44"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="7">
         <v>0.27</v>
       </c>
@@ -8195,28 +8207,28 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="40" t="s">
+      <c r="B38" s="44"/>
+      <c r="C38" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="45">
+      <c r="D38" s="44"/>
+      <c r="E38" s="47">
         <v>1978</v>
       </c>
-      <c r="F38" s="46"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="40" t="s">
+      <c r="H38" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="43" t="s">
+      <c r="I38" s="44"/>
+      <c r="J38" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="44"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52"/>
       <c r="M38" s="7">
         <v>0.24</v>
       </c>
@@ -8226,28 +8238,28 @@
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="40" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="40" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F39" s="41"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="43" t="s">
+      <c r="I39" s="44"/>
+      <c r="J39" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="K39" s="48"/>
-      <c r="L39" s="44"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="52"/>
       <c r="M39" s="7">
         <v>0.2</v>
       </c>
@@ -8257,28 +8269,28 @@
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="40" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="40" t="s">
+      <c r="D40" s="44"/>
+      <c r="E40" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F40" s="41"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="43" t="s">
+      <c r="I40" s="44"/>
+      <c r="J40" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="44"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="52"/>
       <c r="M40" s="7">
         <v>0.42</v>
       </c>
@@ -8288,28 +8300,28 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="40" t="s">
+      <c r="B41" s="44"/>
+      <c r="C41" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="45">
+      <c r="D41" s="44"/>
+      <c r="E41" s="47">
         <v>1994</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="49"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="43" t="s">
+      <c r="I41" s="44"/>
+      <c r="J41" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="44"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="52"/>
       <c r="M41" s="7">
         <v>0.17</v>
       </c>
@@ -8319,28 +8331,28 @@
       <c r="O41" s="13"/>
     </row>
     <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="40" t="s">
+      <c r="B42" s="44"/>
+      <c r="C42" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="45">
+      <c r="D42" s="44"/>
+      <c r="E42" s="47">
         <v>1994</v>
       </c>
-      <c r="F42" s="46"/>
+      <c r="F42" s="49"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="40" t="s">
+      <c r="I42" s="44"/>
+      <c r="J42" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="K42" s="42"/>
-      <c r="L42" s="41"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="44"/>
       <c r="M42" s="7">
         <v>0.09</v>
       </c>
@@ -8350,28 +8362,28 @@
       <c r="O42" s="10"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="40" t="s">
+      <c r="B43" s="44"/>
+      <c r="C43" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="40" t="s">
+      <c r="D43" s="44"/>
+      <c r="E43" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="40" t="s">
+      <c r="H43" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="40" t="s">
+      <c r="I43" s="44"/>
+      <c r="J43" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="K43" s="42"/>
-      <c r="L43" s="41"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="7">
         <v>0.27</v>
       </c>
@@ -8381,28 +8393,28 @@
       <c r="O43" s="13"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="40" t="s">
+      <c r="B44" s="44"/>
+      <c r="C44" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="40" t="s">
+      <c r="D44" s="44"/>
+      <c r="E44" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="44"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="43" t="s">
+      <c r="I44" s="44"/>
+      <c r="J44" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="K44" s="48"/>
-      <c r="L44" s="44"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="52"/>
       <c r="M44" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -8412,28 +8424,28 @@
       <c r="O44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="40" t="s">
+      <c r="B45" s="44"/>
+      <c r="C45" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="40" t="s">
+      <c r="D45" s="44"/>
+      <c r="E45" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="41"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="49">
+      <c r="I45" s="44"/>
+      <c r="J45" s="54">
         <v>6863</v>
       </c>
-      <c r="K45" s="50"/>
-      <c r="L45" s="51"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="56"/>
       <c r="M45" s="7">
         <v>0.34</v>
       </c>
@@ -8443,28 +8455,28 @@
       <c r="O45" s="10"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="40" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="43" t="s">
+      <c r="D46" s="44"/>
+      <c r="E46" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="44"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="43" t="s">
+      <c r="I46" s="44"/>
+      <c r="J46" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="44"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="52"/>
       <c r="M46" s="7">
         <v>0.18</v>
       </c>
@@ -8474,28 +8486,28 @@
       <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="40" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="43" t="s">
+      <c r="D47" s="44"/>
+      <c r="E47" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="44"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="40" t="s">
+      <c r="H47" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I47" s="41"/>
-      <c r="J47" s="40" t="s">
+      <c r="I47" s="44"/>
+      <c r="J47" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="K47" s="42"/>
-      <c r="L47" s="41"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="44"/>
       <c r="M47" s="7">
         <v>0.26</v>
       </c>
@@ -8505,28 +8517,28 @@
       <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="40" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="43" t="s">
+      <c r="D48" s="44"/>
+      <c r="E48" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="F48" s="44"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="40" t="s">
+      <c r="I48" s="44"/>
+      <c r="J48" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="K48" s="42"/>
-      <c r="L48" s="41"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="44"/>
       <c r="M48" s="7">
         <v>0.05</v>
       </c>
@@ -8536,28 +8548,28 @@
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="40" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="43" t="s">
+      <c r="D49" s="44"/>
+      <c r="E49" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="F49" s="44"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="43" t="s">
+      <c r="I49" s="44"/>
+      <c r="J49" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="K49" s="48"/>
-      <c r="L49" s="44"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="52"/>
       <c r="M49" s="7">
         <v>0.15</v>
       </c>
@@ -8567,28 +8579,28 @@
       <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="40" t="s">
+      <c r="B50" s="44"/>
+      <c r="C50" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="40" t="s">
+      <c r="D50" s="44"/>
+      <c r="E50" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="44"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="40" t="s">
+      <c r="H50" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="43" t="s">
+      <c r="I50" s="44"/>
+      <c r="J50" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="K50" s="48"/>
-      <c r="L50" s="44"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
       <c r="M50" s="7">
         <v>0.22</v>
       </c>
@@ -8598,28 +8610,28 @@
       <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="40" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="40" t="s">
+      <c r="D51" s="44"/>
+      <c r="E51" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="41"/>
+      <c r="F51" s="44"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="40" t="s">
+      <c r="H51" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="40" t="s">
+      <c r="I51" s="44"/>
+      <c r="J51" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="K51" s="42"/>
-      <c r="L51" s="41"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="44"/>
       <c r="M51" s="7">
         <v>0.53</v>
       </c>
@@ -8629,28 +8641,28 @@
       <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="40" t="s">
+      <c r="B52" s="44"/>
+      <c r="C52" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="40" t="s">
+      <c r="D52" s="44"/>
+      <c r="E52" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F52" s="41"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="43" t="s">
+      <c r="I52" s="44"/>
+      <c r="J52" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="K52" s="48"/>
-      <c r="L52" s="44"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="52"/>
       <c r="M52" s="7">
         <v>0.44</v>
       </c>
@@ -8660,28 +8672,28 @@
       <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="40" t="s">
+      <c r="B53" s="44"/>
+      <c r="C53" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="40" t="s">
+      <c r="D53" s="44"/>
+      <c r="E53" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F53" s="41"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I53" s="41"/>
-      <c r="J53" s="43" t="s">
+      <c r="I53" s="44"/>
+      <c r="J53" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="K53" s="48"/>
-      <c r="L53" s="44"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="52"/>
       <c r="M53" s="7">
         <v>0.23</v>
       </c>
@@ -8691,28 +8703,28 @@
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="40" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="45">
+      <c r="D54" s="44"/>
+      <c r="E54" s="47">
         <v>1994</v>
       </c>
-      <c r="F54" s="46"/>
+      <c r="F54" s="49"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="40" t="s">
+      <c r="H54" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I54" s="41"/>
-      <c r="J54" s="43" t="s">
+      <c r="I54" s="44"/>
+      <c r="J54" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="K54" s="48"/>
-      <c r="L54" s="44"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="52"/>
       <c r="M54" s="7">
         <v>0.19</v>
       </c>
@@ -8722,28 +8734,28 @@
       <c r="O54" s="13"/>
     </row>
     <row r="55" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="40" t="s">
+      <c r="B55" s="44"/>
+      <c r="C55" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="45">
+      <c r="D55" s="44"/>
+      <c r="E55" s="47">
         <v>1994</v>
       </c>
-      <c r="F55" s="46"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="40" t="s">
+      <c r="H55" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I55" s="41"/>
-      <c r="J55" s="40" t="s">
+      <c r="I55" s="44"/>
+      <c r="J55" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="K55" s="42"/>
-      <c r="L55" s="41"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="44"/>
       <c r="M55" s="7">
         <v>0.2</v>
       </c>
@@ -8753,28 +8765,28 @@
       <c r="O55" s="10"/>
     </row>
     <row r="56" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="40" t="s">
+      <c r="B56" s="44"/>
+      <c r="C56" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="45">
+      <c r="D56" s="44"/>
+      <c r="E56" s="47">
         <v>1994</v>
       </c>
-      <c r="F56" s="46"/>
+      <c r="F56" s="49"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="40" t="s">
+      <c r="H56" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="43" t="s">
+      <c r="I56" s="44"/>
+      <c r="J56" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="K56" s="48"/>
-      <c r="L56" s="44"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="52"/>
       <c r="M56" s="5" t="s">
         <v>97</v>
       </c>
@@ -8784,28 +8796,28 @@
       <c r="O56" s="6"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="40" t="s">
+      <c r="B57" s="52"/>
+      <c r="C57" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="40" t="s">
+      <c r="D57" s="44"/>
+      <c r="E57" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="F57" s="41"/>
+      <c r="F57" s="44"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I57" s="41"/>
-      <c r="J57" s="45">
+      <c r="I57" s="44"/>
+      <c r="J57" s="47">
         <v>97</v>
       </c>
-      <c r="K57" s="47"/>
-      <c r="L57" s="46"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="49"/>
       <c r="M57" s="7">
         <v>0.23</v>
       </c>
@@ -8815,28 +8827,28 @@
       <c r="O57" s="10"/>
     </row>
     <row r="58" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="40" t="s">
+      <c r="B58" s="52"/>
+      <c r="C58" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="40" t="s">
+      <c r="D58" s="44"/>
+      <c r="E58" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="F58" s="41"/>
+      <c r="F58" s="44"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I58" s="41"/>
-      <c r="J58" s="45">
+      <c r="I58" s="44"/>
+      <c r="J58" s="47">
         <v>387</v>
       </c>
-      <c r="K58" s="47"/>
-      <c r="L58" s="46"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="49"/>
       <c r="M58" s="7">
         <v>0.11</v>
       </c>
@@ -8846,28 +8858,28 @@
       <c r="O58" s="10"/>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="40" t="s">
+      <c r="B59" s="44"/>
+      <c r="C59" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="45">
+      <c r="D59" s="44"/>
+      <c r="E59" s="47">
         <v>1997</v>
       </c>
-      <c r="F59" s="46"/>
+      <c r="F59" s="49"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="40" t="s">
+      <c r="H59" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I59" s="41"/>
-      <c r="J59" s="40" t="s">
+      <c r="I59" s="44"/>
+      <c r="J59" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="K59" s="42"/>
-      <c r="L59" s="41"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="44"/>
       <c r="M59" s="5" t="s">
         <v>97</v>
       </c>
@@ -8877,28 +8889,28 @@
       <c r="O59" s="13"/>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="40" t="s">
+      <c r="B60" s="44"/>
+      <c r="C60" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="43" t="s">
+      <c r="D60" s="44"/>
+      <c r="E60" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="F60" s="44"/>
+      <c r="F60" s="52"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="40" t="s">
+      <c r="H60" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I60" s="41"/>
-      <c r="J60" s="45">
+      <c r="I60" s="44"/>
+      <c r="J60" s="47">
         <v>164</v>
       </c>
-      <c r="K60" s="47"/>
-      <c r="L60" s="46"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="49"/>
       <c r="M60" s="7">
         <v>0.09</v>
       </c>
@@ -8908,28 +8920,28 @@
       <c r="O60" s="6"/>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="40" t="s">
+      <c r="B61" s="44"/>
+      <c r="C61" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="43" t="s">
+      <c r="D61" s="44"/>
+      <c r="E61" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="F61" s="44"/>
+      <c r="F61" s="52"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I61" s="41"/>
-      <c r="J61" s="45">
+      <c r="I61" s="44"/>
+      <c r="J61" s="47">
         <v>130</v>
       </c>
-      <c r="K61" s="47"/>
-      <c r="L61" s="46"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="49"/>
       <c r="M61" s="7">
         <v>0.18</v>
       </c>
@@ -8939,28 +8951,28 @@
       <c r="O61" s="6"/>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="40" t="s">
+      <c r="B62" s="44"/>
+      <c r="C62" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="43" t="s">
+      <c r="D62" s="44"/>
+      <c r="E62" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="F62" s="44"/>
+      <c r="F62" s="52"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="40" t="s">
+      <c r="H62" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="41"/>
-      <c r="J62" s="45">
+      <c r="I62" s="44"/>
+      <c r="J62" s="47">
         <v>176</v>
       </c>
-      <c r="K62" s="47"/>
-      <c r="L62" s="46"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="49"/>
       <c r="M62" s="7">
         <v>0.1</v>
       </c>
@@ -8970,28 +8982,28 @@
       <c r="O62" s="6"/>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="40" t="s">
+      <c r="B63" s="44"/>
+      <c r="C63" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="43" t="s">
+      <c r="D63" s="44"/>
+      <c r="E63" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="F63" s="44"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="40" t="s">
+      <c r="H63" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I63" s="41"/>
-      <c r="J63" s="49">
+      <c r="I63" s="44"/>
+      <c r="J63" s="54">
         <v>1782</v>
       </c>
-      <c r="K63" s="50"/>
-      <c r="L63" s="51"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="56"/>
       <c r="M63" s="7">
         <v>0.03</v>
       </c>
@@ -9001,28 +9013,28 @@
       <c r="O63" s="6"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="40" t="s">
+      <c r="B64" s="44"/>
+      <c r="C64" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="43" t="s">
+      <c r="D64" s="44"/>
+      <c r="E64" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="F64" s="44"/>
+      <c r="F64" s="52"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="40" t="s">
+      <c r="H64" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I64" s="41"/>
-      <c r="J64" s="45">
+      <c r="I64" s="44"/>
+      <c r="J64" s="47">
         <v>305</v>
       </c>
-      <c r="K64" s="47"/>
-      <c r="L64" s="46"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="49"/>
       <c r="M64" s="7">
         <v>0.08</v>
       </c>
@@ -9032,28 +9044,28 @@
       <c r="O64" s="6"/>
     </row>
     <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="40" t="s">
+      <c r="B65" s="44"/>
+      <c r="C65" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="43" t="s">
+      <c r="D65" s="44"/>
+      <c r="E65" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="F65" s="44"/>
+      <c r="F65" s="52"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="40" t="s">
+      <c r="H65" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I65" s="41"/>
-      <c r="J65" s="45">
+      <c r="I65" s="44"/>
+      <c r="J65" s="47">
         <v>232</v>
       </c>
-      <c r="K65" s="47"/>
-      <c r="L65" s="46"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="49"/>
       <c r="M65" s="7">
         <v>0.08</v>
       </c>
@@ -9063,28 +9075,28 @@
       <c r="O65" s="6"/>
     </row>
     <row r="66" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="40" t="s">
+      <c r="B66" s="44"/>
+      <c r="C66" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="40" t="s">
+      <c r="D66" s="44"/>
+      <c r="E66" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F66" s="41"/>
+      <c r="F66" s="44"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="40" t="s">
+      <c r="H66" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I66" s="41"/>
-      <c r="J66" s="40" t="s">
+      <c r="I66" s="44"/>
+      <c r="J66" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="K66" s="42"/>
-      <c r="L66" s="41"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="44"/>
       <c r="M66" s="7">
         <v>0.13</v>
       </c>
@@ -9094,28 +9106,28 @@
       <c r="O66" s="10"/>
     </row>
     <row r="67" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="40" t="s">
+      <c r="B67" s="44"/>
+      <c r="C67" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="40" t="s">
+      <c r="D67" s="44"/>
+      <c r="E67" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="44"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="40" t="s">
+      <c r="H67" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I67" s="41"/>
-      <c r="J67" s="43" t="s">
+      <c r="I67" s="44"/>
+      <c r="J67" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="K67" s="48"/>
-      <c r="L67" s="44"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="52"/>
       <c r="M67" s="7">
         <v>0.23</v>
       </c>
@@ -9125,28 +9137,28 @@
       <c r="O67" s="6"/>
     </row>
     <row r="68" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="B68" s="41"/>
-      <c r="C68" s="40" t="s">
+      <c r="B68" s="44"/>
+      <c r="C68" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="40" t="s">
+      <c r="D68" s="44"/>
+      <c r="E68" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F68" s="41"/>
+      <c r="F68" s="44"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="40" t="s">
+      <c r="H68" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I68" s="41"/>
-      <c r="J68" s="43" t="s">
+      <c r="I68" s="44"/>
+      <c r="J68" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K68" s="48"/>
-      <c r="L68" s="44"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="52"/>
       <c r="M68" s="7">
         <v>0.43</v>
       </c>
@@ -9156,28 +9168,28 @@
       <c r="O68" s="6"/>
     </row>
     <row r="69" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="40" t="s">
+      <c r="B69" s="44"/>
+      <c r="C69" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="40" t="s">
+      <c r="D69" s="44"/>
+      <c r="E69" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="F69" s="41"/>
+      <c r="F69" s="44"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="40" t="s">
+      <c r="H69" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I69" s="41"/>
-      <c r="J69" s="45">
+      <c r="I69" s="44"/>
+      <c r="J69" s="47">
         <v>28</v>
       </c>
-      <c r="K69" s="47"/>
-      <c r="L69" s="46"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="49"/>
       <c r="M69" s="7">
         <v>0.43</v>
       </c>
@@ -9187,28 +9199,28 @@
       <c r="O69" s="10"/>
     </row>
     <row r="70" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="40" t="s">
+      <c r="B70" s="52"/>
+      <c r="C70" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="40" t="s">
+      <c r="D70" s="44"/>
+      <c r="E70" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="F70" s="41"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="40" t="s">
+      <c r="H70" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I70" s="41"/>
-      <c r="J70" s="43" t="s">
+      <c r="I70" s="44"/>
+      <c r="J70" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="K70" s="48"/>
-      <c r="L70" s="44"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="52"/>
       <c r="M70" s="7">
         <v>0.11</v>
       </c>
@@ -9218,28 +9230,28 @@
       <c r="O70" s="13"/>
     </row>
     <row r="71" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="40" t="s">
+      <c r="B71" s="44"/>
+      <c r="C71" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="D71" s="41"/>
-      <c r="E71" s="40" t="s">
+      <c r="D71" s="44"/>
+      <c r="E71" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F71" s="41"/>
+      <c r="F71" s="44"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="40" t="s">
+      <c r="H71" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I71" s="41"/>
-      <c r="J71" s="40" t="s">
+      <c r="I71" s="44"/>
+      <c r="J71" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="K71" s="42"/>
-      <c r="L71" s="41"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="44"/>
       <c r="M71" s="7">
         <v>0.11</v>
       </c>
@@ -9249,28 +9261,28 @@
       <c r="O71" s="6"/>
     </row>
     <row r="72" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="B72" s="41"/>
-      <c r="C72" s="40" t="s">
+      <c r="B72" s="44"/>
+      <c r="C72" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="41"/>
-      <c r="E72" s="45">
+      <c r="D72" s="44"/>
+      <c r="E72" s="47">
         <v>2001</v>
       </c>
-      <c r="F72" s="46"/>
+      <c r="F72" s="49"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="40" t="s">
+      <c r="H72" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I72" s="41"/>
-      <c r="J72" s="40" t="s">
+      <c r="I72" s="44"/>
+      <c r="J72" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="K72" s="42"/>
-      <c r="L72" s="41"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="44"/>
       <c r="M72" s="7">
         <v>0.1</v>
       </c>
@@ -9280,28 +9292,28 @@
       <c r="O72" s="10"/>
     </row>
     <row r="73" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="40" t="s">
+      <c r="B73" s="44"/>
+      <c r="C73" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="45">
+      <c r="D73" s="44"/>
+      <c r="E73" s="47">
         <v>2001</v>
       </c>
-      <c r="F73" s="46"/>
+      <c r="F73" s="49"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="40" t="s">
+      <c r="H73" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I73" s="41"/>
-      <c r="J73" s="40" t="s">
+      <c r="I73" s="44"/>
+      <c r="J73" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="K73" s="42"/>
-      <c r="L73" s="41"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="44"/>
       <c r="M73" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9311,28 +9323,28 @@
       <c r="O73" s="10"/>
     </row>
     <row r="74" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="B74" s="41"/>
-      <c r="C74" s="40" t="s">
+      <c r="B74" s="44"/>
+      <c r="C74" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D74" s="41"/>
-      <c r="E74" s="45">
+      <c r="D74" s="44"/>
+      <c r="E74" s="47">
         <v>2001</v>
       </c>
-      <c r="F74" s="46"/>
+      <c r="F74" s="49"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="40" t="s">
+      <c r="H74" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I74" s="41"/>
-      <c r="J74" s="40" t="s">
+      <c r="I74" s="44"/>
+      <c r="J74" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="K74" s="42"/>
-      <c r="L74" s="41"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="44"/>
       <c r="M74" s="7">
         <v>0.12</v>
       </c>
@@ -9342,28 +9354,28 @@
       <c r="O74" s="10"/>
     </row>
     <row r="75" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="40" t="s">
+      <c r="B75" s="44"/>
+      <c r="C75" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D75" s="41"/>
-      <c r="E75" s="45">
+      <c r="D75" s="44"/>
+      <c r="E75" s="47">
         <v>2001</v>
       </c>
-      <c r="F75" s="46"/>
+      <c r="F75" s="49"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="40" t="s">
+      <c r="H75" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I75" s="41"/>
-      <c r="J75" s="43" t="s">
+      <c r="I75" s="44"/>
+      <c r="J75" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="K75" s="48"/>
-      <c r="L75" s="44"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="52"/>
       <c r="M75" s="7">
         <v>0.08</v>
       </c>
@@ -9373,28 +9385,28 @@
       <c r="O75" s="6"/>
     </row>
     <row r="76" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="40" t="s">
+      <c r="B76" s="44"/>
+      <c r="C76" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="45">
+      <c r="D76" s="44"/>
+      <c r="E76" s="47">
         <v>2001</v>
       </c>
-      <c r="F76" s="46"/>
+      <c r="F76" s="49"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="40" t="s">
+      <c r="H76" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="43" t="s">
+      <c r="I76" s="44"/>
+      <c r="J76" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="K76" s="48"/>
-      <c r="L76" s="44"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="52"/>
       <c r="M76" s="7">
         <v>0.1</v>
       </c>
@@ -9404,28 +9416,28 @@
       <c r="O76" s="6"/>
     </row>
     <row r="77" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="40" t="s">
+      <c r="B77" s="44"/>
+      <c r="C77" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="40" t="s">
+      <c r="D77" s="44"/>
+      <c r="E77" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="F77" s="41"/>
+      <c r="F77" s="44"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="40" t="s">
+      <c r="H77" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I77" s="41"/>
-      <c r="J77" s="40" t="s">
+      <c r="I77" s="44"/>
+      <c r="J77" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="K77" s="42"/>
-      <c r="L77" s="41"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="44"/>
       <c r="M77" s="7">
         <v>0.15</v>
       </c>
@@ -9435,28 +9447,28 @@
       <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="B78" s="41"/>
-      <c r="C78" s="40" t="s">
+      <c r="B78" s="44"/>
+      <c r="C78" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="40" t="s">
+      <c r="D78" s="44"/>
+      <c r="E78" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F78" s="41"/>
+      <c r="F78" s="44"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="40" t="s">
+      <c r="H78" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I78" s="41"/>
-      <c r="J78" s="40" t="s">
+      <c r="I78" s="44"/>
+      <c r="J78" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="K78" s="42"/>
-      <c r="L78" s="41"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="44"/>
       <c r="M78" s="7">
         <v>0.13</v>
       </c>
@@ -9466,28 +9478,28 @@
       <c r="O78" s="10"/>
     </row>
     <row r="79" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="B79" s="41"/>
-      <c r="C79" s="40" t="s">
+      <c r="B79" s="44"/>
+      <c r="C79" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="40" t="s">
+      <c r="D79" s="44"/>
+      <c r="E79" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="41"/>
+      <c r="F79" s="44"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="40" t="s">
+      <c r="H79" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I79" s="41"/>
-      <c r="J79" s="40" t="s">
+      <c r="I79" s="44"/>
+      <c r="J79" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="K79" s="42"/>
-      <c r="L79" s="41"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="44"/>
       <c r="M79" s="7">
         <v>0.67</v>
       </c>
@@ -9497,28 +9509,28 @@
       <c r="O79" s="13"/>
     </row>
     <row r="80" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="40" t="s">
+      <c r="B80" s="44"/>
+      <c r="C80" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="40" t="s">
+      <c r="D80" s="44"/>
+      <c r="E80" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F80" s="41"/>
+      <c r="F80" s="44"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="40" t="s">
+      <c r="H80" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I80" s="41"/>
-      <c r="J80" s="43" t="s">
+      <c r="I80" s="44"/>
+      <c r="J80" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="K80" s="48"/>
-      <c r="L80" s="44"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="52"/>
       <c r="M80" s="7">
         <v>0.35</v>
       </c>
@@ -9528,28 +9540,28 @@
       <c r="O80" s="13"/>
     </row>
     <row r="81" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="40" t="s">
+      <c r="B81" s="52"/>
+      <c r="C81" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="40" t="s">
+      <c r="D81" s="44"/>
+      <c r="E81" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="F81" s="41"/>
+      <c r="F81" s="44"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="40" t="s">
+      <c r="H81" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I81" s="41"/>
-      <c r="J81" s="45">
+      <c r="I81" s="44"/>
+      <c r="J81" s="47">
         <v>225</v>
       </c>
-      <c r="K81" s="47"/>
-      <c r="L81" s="46"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="49"/>
       <c r="M81" s="7">
         <v>0.34</v>
       </c>
@@ -9559,28 +9571,28 @@
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="40" t="s">
+      <c r="B82" s="52"/>
+      <c r="C82" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="40" t="s">
+      <c r="D82" s="44"/>
+      <c r="E82" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="F82" s="41"/>
+      <c r="F82" s="44"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="40" t="s">
+      <c r="H82" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I82" s="41"/>
-      <c r="J82" s="43" t="s">
+      <c r="I82" s="44"/>
+      <c r="J82" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="K82" s="48"/>
-      <c r="L82" s="44"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="52"/>
       <c r="M82" s="7">
         <v>0.12</v>
       </c>
@@ -9590,28 +9602,28 @@
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="40" t="s">
+      <c r="B83" s="44"/>
+      <c r="C83" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="40" t="s">
+      <c r="D83" s="44"/>
+      <c r="E83" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F83" s="41"/>
+      <c r="F83" s="44"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="40" t="s">
+      <c r="H83" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I83" s="41"/>
-      <c r="J83" s="45">
+      <c r="I83" s="44"/>
+      <c r="J83" s="47">
         <v>138</v>
       </c>
-      <c r="K83" s="47"/>
-      <c r="L83" s="46"/>
+      <c r="K83" s="48"/>
+      <c r="L83" s="49"/>
       <c r="M83" s="7">
         <v>0.28000000000000003</v>
       </c>
@@ -9621,28 +9633,28 @@
       <c r="O83" s="10"/>
     </row>
     <row r="84" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="B84" s="41"/>
-      <c r="C84" s="40" t="s">
+      <c r="B84" s="44"/>
+      <c r="C84" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="40" t="s">
+      <c r="D84" s="44"/>
+      <c r="E84" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="F84" s="41"/>
+      <c r="F84" s="44"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="40" t="s">
+      <c r="H84" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I84" s="41"/>
-      <c r="J84" s="40" t="s">
+      <c r="I84" s="44"/>
+      <c r="J84" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="K84" s="42"/>
-      <c r="L84" s="41"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="44"/>
       <c r="M84" s="7">
         <v>0.1</v>
       </c>
@@ -9652,28 +9664,28 @@
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="40" t="s">
+      <c r="B85" s="44"/>
+      <c r="C85" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="40" t="s">
+      <c r="D85" s="44"/>
+      <c r="E85" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="F85" s="41"/>
+      <c r="F85" s="44"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="40" t="s">
+      <c r="H85" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I85" s="41"/>
-      <c r="J85" s="40" t="s">
+      <c r="I85" s="44"/>
+      <c r="J85" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="K85" s="42"/>
-      <c r="L85" s="41"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="44"/>
       <c r="M85" s="7">
         <v>0.22</v>
       </c>
@@ -9683,28 +9695,28 @@
       <c r="O85" s="6"/>
     </row>
     <row r="86" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="40" t="s">
+      <c r="B86" s="44"/>
+      <c r="C86" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="D86" s="41"/>
-      <c r="E86" s="40" t="s">
+      <c r="D86" s="44"/>
+      <c r="E86" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="F86" s="41"/>
+      <c r="F86" s="44"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="40" t="s">
+      <c r="H86" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I86" s="41"/>
-      <c r="J86" s="40" t="s">
+      <c r="I86" s="44"/>
+      <c r="J86" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="K86" s="42"/>
-      <c r="L86" s="41"/>
+      <c r="K86" s="53"/>
+      <c r="L86" s="44"/>
       <c r="M86" s="7">
         <v>0.13</v>
       </c>
@@ -9714,28 +9726,28 @@
       <c r="O86" s="6"/>
     </row>
     <row r="87" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="40" t="s">
+      <c r="B87" s="44"/>
+      <c r="C87" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="40" t="s">
+      <c r="D87" s="44"/>
+      <c r="E87" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="F87" s="41"/>
+      <c r="F87" s="44"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="40" t="s">
+      <c r="H87" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I87" s="41"/>
-      <c r="J87" s="43" t="s">
+      <c r="I87" s="44"/>
+      <c r="J87" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="K87" s="48"/>
-      <c r="L87" s="44"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="52"/>
       <c r="M87" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -9745,28 +9757,28 @@
       <c r="O87" s="13"/>
     </row>
     <row r="88" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="40" t="s">
+      <c r="B88" s="44"/>
+      <c r="C88" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="40" t="s">
+      <c r="D88" s="44"/>
+      <c r="E88" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="F88" s="41"/>
+      <c r="F88" s="44"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="40" t="s">
+      <c r="H88" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I88" s="41"/>
-      <c r="J88" s="45">
+      <c r="I88" s="44"/>
+      <c r="J88" s="47">
         <v>5</v>
       </c>
-      <c r="K88" s="47"/>
-      <c r="L88" s="46"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="49"/>
       <c r="M88" s="7">
         <v>0.2</v>
       </c>
@@ -9776,28 +9788,28 @@
       <c r="O88" s="10"/>
     </row>
     <row r="89" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="41"/>
-      <c r="C89" s="40" t="s">
+      <c r="B89" s="44"/>
+      <c r="C89" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="40" t="s">
+      <c r="D89" s="44"/>
+      <c r="E89" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="F89" s="41"/>
+      <c r="F89" s="44"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="40" t="s">
+      <c r="H89" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I89" s="41"/>
-      <c r="J89" s="40" t="s">
+      <c r="I89" s="44"/>
+      <c r="J89" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="K89" s="42"/>
-      <c r="L89" s="41"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="44"/>
       <c r="M89" s="7">
         <v>0.75</v>
       </c>
@@ -9807,28 +9819,28 @@
       <c r="O89" s="10"/>
     </row>
     <row r="90" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="B90" s="41"/>
-      <c r="C90" s="40" t="s">
+      <c r="B90" s="44"/>
+      <c r="C90" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="D90" s="41"/>
-      <c r="E90" s="40" t="s">
+      <c r="D90" s="44"/>
+      <c r="E90" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="F90" s="41"/>
+      <c r="F90" s="44"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="40" t="s">
+      <c r="H90" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I90" s="41"/>
-      <c r="J90" s="40" t="s">
+      <c r="I90" s="44"/>
+      <c r="J90" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="K90" s="42"/>
-      <c r="L90" s="41"/>
+      <c r="K90" s="53"/>
+      <c r="L90" s="44"/>
       <c r="M90" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -9838,28 +9850,28 @@
       <c r="O90" s="6"/>
     </row>
     <row r="91" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="40" t="s">
+      <c r="B91" s="44"/>
+      <c r="C91" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="40" t="s">
+      <c r="D91" s="44"/>
+      <c r="E91" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="F91" s="41"/>
+      <c r="F91" s="44"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="40" t="s">
+      <c r="H91" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I91" s="41"/>
-      <c r="J91" s="43" t="s">
+      <c r="I91" s="44"/>
+      <c r="J91" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="K91" s="48"/>
-      <c r="L91" s="44"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="52"/>
       <c r="M91" s="7">
         <v>0.09</v>
       </c>
@@ -9869,28 +9881,28 @@
       <c r="O91" s="6"/>
     </row>
     <row r="92" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="B92" s="41"/>
-      <c r="C92" s="40" t="s">
+      <c r="B92" s="44"/>
+      <c r="C92" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="40" t="s">
+      <c r="D92" s="44"/>
+      <c r="E92" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="F92" s="41"/>
+      <c r="F92" s="44"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="40" t="s">
+      <c r="H92" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I92" s="41"/>
-      <c r="J92" s="40" t="s">
+      <c r="I92" s="44"/>
+      <c r="J92" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="K92" s="42"/>
-      <c r="L92" s="41"/>
+      <c r="K92" s="53"/>
+      <c r="L92" s="44"/>
       <c r="M92" s="7">
         <v>0.13</v>
       </c>
@@ -9900,28 +9912,28 @@
       <c r="O92" s="6"/>
     </row>
     <row r="93" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="40" t="s">
+      <c r="B93" s="44"/>
+      <c r="C93" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="40" t="s">
+      <c r="D93" s="44"/>
+      <c r="E93" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="F93" s="41"/>
+      <c r="F93" s="44"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="40" t="s">
+      <c r="H93" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I93" s="41"/>
-      <c r="J93" s="43" t="s">
+      <c r="I93" s="44"/>
+      <c r="J93" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="K93" s="48"/>
-      <c r="L93" s="44"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="52"/>
       <c r="M93" s="7">
         <v>0.1</v>
       </c>
@@ -9931,28 +9943,28 @@
       <c r="O93" s="6"/>
     </row>
     <row r="94" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="B94" s="41"/>
-      <c r="C94" s="40" t="s">
+      <c r="B94" s="44"/>
+      <c r="C94" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="53" t="s">
+      <c r="D94" s="44"/>
+      <c r="E94" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="F94" s="54"/>
+      <c r="F94" s="46"/>
       <c r="G94" s="14"/>
-      <c r="H94" s="40" t="s">
+      <c r="H94" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I94" s="41"/>
-      <c r="J94" s="45">
+      <c r="I94" s="44"/>
+      <c r="J94" s="47">
         <v>91</v>
       </c>
-      <c r="K94" s="47"/>
-      <c r="L94" s="46"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="49"/>
       <c r="M94" s="7">
         <v>0.51</v>
       </c>
@@ -9962,23 +9974,23 @@
       <c r="O94" s="13"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" s="52" t="s">
+      <c r="A95" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="52"/>
-      <c r="K95" s="52"/>
-      <c r="L95" s="52"/>
-      <c r="M95" s="52"/>
-      <c r="N95" s="52"/>
-      <c r="O95" s="52"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
@@ -11265,87 +11277,381 @@
     <filterColumn colId="10" showButton="0"/>
   </autoFilter>
   <mergeCells count="471">
-    <mergeCell ref="A95:O95"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:L75"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="E78:F78"/>
@@ -11361,381 +11667,87 @@
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="J77:L77"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="A95:O95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:L93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications/SHIELD/support/contactTracing1.xlsx
+++ b/applications/SHIELD/support/contactTracing1.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/pkasaie1_jh_edu/Documents/SHIELDR01/Simulation/code/jheem_analyses/applications/SHIELD/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{B3072B77-8F0F-2842-9A51-5929F5064928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF25111C-2DE4-8140-8503-05119C341CC6}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{B3072B77-8F0F-2842-9A51-5929F5064928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FAA22F0-58F7-1B4F-803A-0E1F08DDDD43}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="720" windowWidth="37540" windowHeight="17440" xr2:uid="{B47A3F01-3C2A-774F-B5A4-9BB5BDC5E9A9}"/>
+    <workbookView xWindow="84240" yWindow="4760" windowWidth="34560" windowHeight="17440" activeTab="1" xr2:uid="{B47A3F01-3C2A-774F-B5A4-9BB5BDC5E9A9}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
-    <sheet name="Full Appendix" sheetId="4" r:id="rId2"/>
-    <sheet name="Syphilis Appendix" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Full Appendix" sheetId="4" r:id="rId3"/>
+    <sheet name="Syphilis Appendix" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Full Appendix'!$A$1:$O$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Syphilis Appendix'!$A$1:$M$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Full Appendix'!$A$1:$O$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Syphilis Appendix'!$A$1:$M$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="403">
   <si>
     <r>
       <t>We reviewed data from early syphilis cases reported during the</t>
@@ -4011,6 +4012,42 @@
   </si>
   <si>
     <t>Increasing Public Health Partner Services for Human Immunodeficiency Virus: Results of a Second National Survey</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Unkown</t>
+  </si>
+  <si>
+    <t>misclassification</t>
+  </si>
+  <si>
+    <t>True LL/Un</t>
+  </si>
+  <si>
+    <t>misclassified as EL</t>
+  </si>
+  <si>
+    <t>p=</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>np91-p)</t>
+  </si>
+  <si>
+    <t>std deviation</t>
   </si>
 </sst>
 </file>
@@ -4356,6 +4393,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4371,40 +4414,31 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4416,11 +4450,14 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5804,8 +5841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211859D2-F9E3-484D-87E1-D018F56AE5AF}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5823,17 +5860,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -6536,17 +6573,17 @@
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:12" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -6569,6 +6606,10 @@
       <c r="B36" s="16">
         <v>1407</v>
       </c>
+      <c r="E36" s="16">
+        <f>(14.3-9.5)/9.5</f>
+        <v>0.50526315789473697</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
@@ -6585,12 +6626,16 @@
       <c r="B38" s="16">
         <v>241</v>
       </c>
+      <c r="E38" s="16">
+        <f>(14.2-7.6)/14.2</f>
+        <v>0.46478873239436619</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="58">
+      <c r="B39" s="38">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -6624,30 +6669,30 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
     </row>
     <row r="49" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
     </row>
     <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
@@ -6670,17 +6715,17 @@
       </c>
     </row>
     <row r="56" spans="1:9" s="26" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
     </row>
     <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
@@ -6828,17 +6873,17 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
     </row>
     <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
@@ -6967,15 +7012,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="39" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
+      <c r="A91" s="39"/>
     </row>
     <row r="92" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
+      <c r="A92" s="39"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
@@ -7004,6 +7049,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DADCB-A200-7A43-8984-14D0FEC0CF91}">
+  <dimension ref="E6:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8">
+        <v>218</v>
+      </c>
+      <c r="I8">
+        <v>2.8</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <f>SUM(J8:K8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9">
+        <v>250</v>
+      </c>
+      <c r="I9">
+        <v>48.4</v>
+      </c>
+      <c r="J9">
+        <v>14.4</v>
+      </c>
+      <c r="K9">
+        <v>31.6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L11" si="0">SUM(J9:K9)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10">
+        <v>143</v>
+      </c>
+      <c r="I10">
+        <v>4.2</v>
+      </c>
+      <c r="J10">
+        <v>49.7</v>
+      </c>
+      <c r="K10">
+        <v>41.3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11">
+        <v>212</v>
+      </c>
+      <c r="I11">
+        <v>3.8</v>
+      </c>
+      <c r="J11">
+        <v>2.4</v>
+      </c>
+      <c r="K11">
+        <v>80.2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>82.600000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f>SUMPRODUCT(I7:I11,F7:F11)/100</f>
+        <v>146.11600000000001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>397</v>
+      </c>
+      <c r="L13">
+        <f>SUMPRODUCT(L9:L11,F9:F11)/100</f>
+        <v>420.24199999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15">
+        <f>(I13-F9*I9/100)/I13</f>
+        <v>0.17189082646664303</v>
+      </c>
+      <c r="K15" t="s">
+        <v>398</v>
+      </c>
+      <c r="L15">
+        <f>(SUMPRODUCT(I10:I11,F10:F11)/100 )/L13</f>
+        <v>3.3461672084180064E-2</v>
+      </c>
+      <c r="M15">
+        <f>SUMPRODUCT(I10:I11,F10:F11)/100</f>
+        <v>14.061999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>402</v>
+      </c>
+      <c r="I19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE94D9E1-FAC7-F440-A0AD-3FF325D90308}">
   <dimension ref="A1:O520"/>
   <sheetViews>
@@ -7018,30 +7229,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="44"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="44"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="5" t="s">
         <v>90</v>
       </c>
@@ -7051,30 +7262,30 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="52"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="11">
         <v>1998</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="43" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="44"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="7">
         <v>0.09</v>
       </c>
@@ -7084,30 +7295,30 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="52"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="11">
         <v>1999</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="44"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7117,30 +7328,30 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="47">
+      <c r="D4" s="45"/>
+      <c r="E4" s="49">
         <v>1991</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="9">
         <v>1991</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="45"/>
+      <c r="J4" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="44"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="7">
         <v>0.3</v>
       </c>
@@ -7150,30 +7361,30 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="43" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="4">
         <v>1994</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="47">
+      <c r="I5" s="45"/>
+      <c r="J5" s="49">
         <v>156</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="50"/>
       <c r="M5" s="7">
         <v>0.05</v>
       </c>
@@ -7183,30 +7394,30 @@
       <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="4">
         <v>2001</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="43" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="44"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="45"/>
       <c r="M6" s="7">
         <v>0.28999999999999998</v>
       </c>
@@ -7216,30 +7427,30 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="4">
         <v>2001</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="50" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="7">
         <v>0.12</v>
       </c>
@@ -7249,30 +7460,30 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="4">
         <v>1994</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="43" t="s">
+      <c r="I8" s="45"/>
+      <c r="J8" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="44"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="7">
         <v>0.32</v>
       </c>
@@ -7282,30 +7493,30 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="43" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="4">
         <v>1994</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="50" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="48"/>
       <c r="M9" s="7">
         <v>0.3</v>
       </c>
@@ -7315,30 +7526,30 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4">
         <v>1994</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="43" t="s">
+      <c r="I10" s="45"/>
+      <c r="J10" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="7">
         <v>0.33</v>
       </c>
@@ -7348,30 +7559,30 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="4">
         <v>1994</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="50" t="s">
+      <c r="I11" s="45"/>
+      <c r="J11" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="7">
         <v>0.39</v>
       </c>
@@ -7381,30 +7592,30 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="43" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="43" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="4">
         <v>1994</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="43" t="s">
+      <c r="I12" s="45"/>
+      <c r="J12" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="53"/>
-      <c r="L12" s="44"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="45"/>
       <c r="M12" s="7">
         <v>0.26</v>
       </c>
@@ -7414,30 +7625,30 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="47">
+      <c r="D13" s="45"/>
+      <c r="E13" s="49">
         <v>1976</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="9">
         <v>1976</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="47">
+      <c r="I13" s="45"/>
+      <c r="J13" s="49">
         <v>811</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="49"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="7">
         <v>0.2</v>
       </c>
@@ -7447,30 +7658,30 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="43" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="43" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="4">
         <v>1990</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="47">
+      <c r="I14" s="45"/>
+      <c r="J14" s="49">
         <v>300</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="49"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="7">
         <v>0.15</v>
       </c>
@@ -7480,30 +7691,30 @@
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="43" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="43" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="4">
         <v>1991</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="50" t="s">
+      <c r="I15" s="45"/>
+      <c r="J15" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="7">
         <v>0.18</v>
       </c>
@@ -7513,30 +7724,30 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="43" t="s">
+      <c r="D16" s="45"/>
+      <c r="E16" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="4">
         <v>1991</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="50" t="s">
+      <c r="I16" s="45"/>
+      <c r="J16" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="7">
         <v>0.22</v>
       </c>
@@ -7546,30 +7757,30 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="4">
         <v>1991</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="50" t="s">
+      <c r="I17" s="45"/>
+      <c r="J17" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="7">
         <v>0.22</v>
       </c>
@@ -7579,30 +7790,30 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="50" t="s">
+      <c r="D18" s="45"/>
+      <c r="E18" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="11">
         <v>1999</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="43" t="s">
+      <c r="I18" s="45"/>
+      <c r="J18" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="44"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="45"/>
       <c r="M18" s="7">
         <v>0.17</v>
       </c>
@@ -7612,30 +7823,30 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="4">
         <v>1984</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="50" t="s">
+      <c r="I19" s="45"/>
+      <c r="J19" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="7">
         <v>0.23</v>
       </c>
@@ -7645,30 +7856,30 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="47">
+      <c r="D20" s="45"/>
+      <c r="E20" s="49">
         <v>1998</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="9">
         <v>1998</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="47">
+      <c r="I20" s="45"/>
+      <c r="J20" s="49">
         <v>48</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="7">
         <v>0.38</v>
       </c>
@@ -7678,30 +7889,30 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="47">
+      <c r="D21" s="45"/>
+      <c r="E21" s="49">
         <v>1992</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="9">
         <v>1992</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="47">
+      <c r="I21" s="45"/>
+      <c r="J21" s="49">
         <v>118</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="7">
         <v>0.46</v>
       </c>
@@ -7711,28 +7922,28 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="43" t="s">
+      <c r="D22" s="45"/>
+      <c r="E22" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="44"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="43" t="s">
+      <c r="I22" s="45"/>
+      <c r="J22" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="44"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="7">
         <v>0.25</v>
       </c>
@@ -7742,28 +7953,28 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="43" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43" t="s">
+      <c r="D23" s="45"/>
+      <c r="E23" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="43" t="s">
+      <c r="I23" s="45"/>
+      <c r="J23" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="44"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="7">
         <v>0.37</v>
       </c>
@@ -7773,28 +7984,28 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="43" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="43" t="s">
+      <c r="D24" s="45"/>
+      <c r="E24" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="43" t="s">
+      <c r="I24" s="45"/>
+      <c r="J24" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="44"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="7">
         <v>0.4</v>
       </c>
@@ -7804,28 +8015,28 @@
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="43" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="43" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="50" t="s">
+      <c r="I25" s="45"/>
+      <c r="J25" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="51"/>
-      <c r="L25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="48"/>
       <c r="M25" s="7">
         <v>0.43</v>
       </c>
@@ -7835,28 +8046,28 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="43" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="43" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="43" t="s">
+      <c r="I26" s="45"/>
+      <c r="J26" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="44"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -7866,28 +8077,28 @@
       <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="43" t="s">
+      <c r="D27" s="45"/>
+      <c r="E27" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="43" t="s">
+      <c r="I27" s="45"/>
+      <c r="J27" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="44"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="45"/>
       <c r="M27" s="7">
         <v>0.17</v>
       </c>
@@ -7897,28 +8108,28 @@
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="43" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="50" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="52"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="54">
+      <c r="I28" s="45"/>
+      <c r="J28" s="53">
         <v>37382</v>
       </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="55"/>
       <c r="M28" s="7">
         <v>0.2</v>
       </c>
@@ -7928,28 +8139,28 @@
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="43" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="43" t="s">
+      <c r="D29" s="45"/>
+      <c r="E29" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="54">
+      <c r="I29" s="45"/>
+      <c r="J29" s="53">
         <v>12284</v>
       </c>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="55"/>
       <c r="M29" s="7">
         <v>0.28000000000000003</v>
       </c>
@@ -7959,28 +8170,28 @@
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="43" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="47">
+      <c r="D30" s="45"/>
+      <c r="E30" s="49">
         <v>1975</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="43" t="s">
+      <c r="I30" s="45"/>
+      <c r="J30" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="44"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="7">
         <v>0.23</v>
       </c>
@@ -7990,28 +8201,28 @@
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="43" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="47">
+      <c r="D31" s="45"/>
+      <c r="E31" s="49">
         <v>1975</v>
       </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="50" t="s">
+      <c r="I31" s="45"/>
+      <c r="J31" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="48"/>
       <c r="M31" s="7">
         <v>0.12</v>
       </c>
@@ -8021,28 +8232,28 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="43" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="43" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="50" t="s">
+      <c r="I32" s="45"/>
+      <c r="J32" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="48"/>
       <c r="M32" s="7">
         <v>0.25</v>
       </c>
@@ -8052,28 +8263,28 @@
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="43" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="47">
+      <c r="D33" s="45"/>
+      <c r="E33" s="49">
         <v>1975</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="43" t="s">
+      <c r="I33" s="45"/>
+      <c r="J33" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="44"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="45"/>
       <c r="M33" s="7">
         <v>0.57999999999999996</v>
       </c>
@@ -8083,28 +8294,28 @@
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="43" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="43" t="s">
+      <c r="D34" s="45"/>
+      <c r="E34" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="F34" s="44"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="44"/>
-      <c r="J34" s="43" t="s">
+      <c r="I34" s="45"/>
+      <c r="J34" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="44"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="45"/>
       <c r="M34" s="7">
         <v>0.38</v>
       </c>
@@ -8114,28 +8325,28 @@
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="43" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="43" t="s">
+      <c r="D35" s="45"/>
+      <c r="E35" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="44"/>
-      <c r="J35" s="43" t="s">
+      <c r="I35" s="45"/>
+      <c r="J35" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="44"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="45"/>
       <c r="M35" s="7">
         <v>0.52</v>
       </c>
@@ -8145,28 +8356,28 @@
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="43" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="43" t="s">
+      <c r="D36" s="45"/>
+      <c r="E36" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="44"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I36" s="44"/>
-      <c r="J36" s="50" t="s">
+      <c r="I36" s="45"/>
+      <c r="J36" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="K36" s="51"/>
-      <c r="L36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="48"/>
       <c r="M36" s="7">
         <v>0.24</v>
       </c>
@@ -8176,28 +8387,28 @@
       <c r="O36" s="13"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="43" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="43" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="F37" s="44"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="43" t="s">
+      <c r="H37" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="50" t="s">
+      <c r="I37" s="45"/>
+      <c r="J37" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="48"/>
       <c r="M37" s="7">
         <v>0.27</v>
       </c>
@@ -8207,28 +8418,28 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="43" t="s">
+      <c r="B38" s="45"/>
+      <c r="C38" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="47">
+      <c r="D38" s="45"/>
+      <c r="E38" s="49">
         <v>1978</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I38" s="44"/>
-      <c r="J38" s="50" t="s">
+      <c r="I38" s="45"/>
+      <c r="J38" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="K38" s="51"/>
-      <c r="L38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="48"/>
       <c r="M38" s="7">
         <v>0.24</v>
       </c>
@@ -8238,28 +8449,28 @@
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="43" t="s">
+      <c r="B39" s="45"/>
+      <c r="C39" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="43" t="s">
+      <c r="D39" s="45"/>
+      <c r="E39" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="F39" s="44"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="43" t="s">
+      <c r="H39" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I39" s="44"/>
-      <c r="J39" s="50" t="s">
+      <c r="I39" s="45"/>
+      <c r="J39" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="K39" s="51"/>
-      <c r="L39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="48"/>
       <c r="M39" s="7">
         <v>0.2</v>
       </c>
@@ -8269,28 +8480,28 @@
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="43" t="s">
+      <c r="B40" s="45"/>
+      <c r="C40" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="43" t="s">
+      <c r="D40" s="45"/>
+      <c r="E40" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="F40" s="44"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I40" s="44"/>
-      <c r="J40" s="50" t="s">
+      <c r="I40" s="45"/>
+      <c r="J40" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="K40" s="51"/>
-      <c r="L40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="48"/>
       <c r="M40" s="7">
         <v>0.42</v>
       </c>
@@ -8300,28 +8511,28 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="43" t="s">
+      <c r="B41" s="45"/>
+      <c r="C41" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="47">
+      <c r="D41" s="45"/>
+      <c r="E41" s="49">
         <v>1994</v>
       </c>
-      <c r="F41" s="49"/>
+      <c r="F41" s="50"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I41" s="44"/>
-      <c r="J41" s="50" t="s">
+      <c r="I41" s="45"/>
+      <c r="J41" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="K41" s="51"/>
-      <c r="L41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="48"/>
       <c r="M41" s="7">
         <v>0.17</v>
       </c>
@@ -8331,28 +8542,28 @@
       <c r="O41" s="13"/>
     </row>
     <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="43" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="47">
+      <c r="D42" s="45"/>
+      <c r="E42" s="49">
         <v>1994</v>
       </c>
-      <c r="F42" s="49"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="44"/>
-      <c r="J42" s="43" t="s">
+      <c r="I42" s="45"/>
+      <c r="J42" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="K42" s="53"/>
-      <c r="L42" s="44"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="7">
         <v>0.09</v>
       </c>
@@ -8362,28 +8573,28 @@
       <c r="O42" s="10"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="43" t="s">
+      <c r="B43" s="45"/>
+      <c r="C43" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="43" t="s">
+      <c r="D43" s="45"/>
+      <c r="E43" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="44"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I43" s="44"/>
-      <c r="J43" s="43" t="s">
+      <c r="I43" s="45"/>
+      <c r="J43" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="K43" s="53"/>
-      <c r="L43" s="44"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="45"/>
       <c r="M43" s="7">
         <v>0.27</v>
       </c>
@@ -8393,28 +8604,28 @@
       <c r="O43" s="13"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="43" t="s">
+      <c r="B44" s="45"/>
+      <c r="C44" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="43" t="s">
+      <c r="D44" s="45"/>
+      <c r="E44" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="44"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="43" t="s">
+      <c r="H44" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="50" t="s">
+      <c r="I44" s="45"/>
+      <c r="J44" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="K44" s="51"/>
-      <c r="L44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="48"/>
       <c r="M44" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -8424,28 +8635,28 @@
       <c r="O44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="43" t="s">
+      <c r="B45" s="45"/>
+      <c r="C45" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="43" t="s">
+      <c r="D45" s="45"/>
+      <c r="E45" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="44"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I45" s="44"/>
-      <c r="J45" s="54">
+      <c r="I45" s="45"/>
+      <c r="J45" s="53">
         <v>6863</v>
       </c>
-      <c r="K45" s="55"/>
-      <c r="L45" s="56"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="55"/>
       <c r="M45" s="7">
         <v>0.34</v>
       </c>
@@ -8455,28 +8666,28 @@
       <c r="O45" s="10"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="43" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="50" t="s">
+      <c r="D46" s="45"/>
+      <c r="E46" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="52"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="50" t="s">
+      <c r="I46" s="45"/>
+      <c r="J46" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="K46" s="51"/>
-      <c r="L46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="48"/>
       <c r="M46" s="7">
         <v>0.18</v>
       </c>
@@ -8486,28 +8697,28 @@
       <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="43" t="s">
+      <c r="B47" s="45"/>
+      <c r="C47" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="50" t="s">
+      <c r="D47" s="45"/>
+      <c r="E47" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="52"/>
+      <c r="F47" s="48"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="43" t="s">
+      <c r="H47" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I47" s="44"/>
-      <c r="J47" s="43" t="s">
+      <c r="I47" s="45"/>
+      <c r="J47" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="K47" s="53"/>
-      <c r="L47" s="44"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="45"/>
       <c r="M47" s="7">
         <v>0.26</v>
       </c>
@@ -8517,28 +8728,28 @@
       <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="43" t="s">
+      <c r="B48" s="45"/>
+      <c r="C48" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="50" t="s">
+      <c r="D48" s="45"/>
+      <c r="E48" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="F48" s="52"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="43" t="s">
+      <c r="H48" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I48" s="44"/>
-      <c r="J48" s="43" t="s">
+      <c r="I48" s="45"/>
+      <c r="J48" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="K48" s="53"/>
-      <c r="L48" s="44"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="45"/>
       <c r="M48" s="7">
         <v>0.05</v>
       </c>
@@ -8548,28 +8759,28 @@
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="43" t="s">
+      <c r="B49" s="45"/>
+      <c r="C49" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="50" t="s">
+      <c r="D49" s="45"/>
+      <c r="E49" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="F49" s="52"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="43" t="s">
+      <c r="H49" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I49" s="44"/>
-      <c r="J49" s="50" t="s">
+      <c r="I49" s="45"/>
+      <c r="J49" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="K49" s="51"/>
-      <c r="L49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="48"/>
       <c r="M49" s="7">
         <v>0.15</v>
       </c>
@@ -8579,28 +8790,28 @@
       <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="43" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="43" t="s">
+      <c r="D50" s="45"/>
+      <c r="E50" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="44"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="43" t="s">
+      <c r="H50" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I50" s="44"/>
-      <c r="J50" s="50" t="s">
+      <c r="I50" s="45"/>
+      <c r="J50" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="48"/>
       <c r="M50" s="7">
         <v>0.22</v>
       </c>
@@ -8610,28 +8821,28 @@
       <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="43" t="s">
+      <c r="B51" s="45"/>
+      <c r="C51" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="43" t="s">
+      <c r="D51" s="45"/>
+      <c r="E51" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="44"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="43" t="s">
+      <c r="H51" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I51" s="44"/>
-      <c r="J51" s="43" t="s">
+      <c r="I51" s="45"/>
+      <c r="J51" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="K51" s="53"/>
-      <c r="L51" s="44"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="45"/>
       <c r="M51" s="7">
         <v>0.53</v>
       </c>
@@ -8641,28 +8852,28 @@
       <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="43" t="s">
+      <c r="B52" s="45"/>
+      <c r="C52" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="43" t="s">
+      <c r="D52" s="45"/>
+      <c r="E52" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="F52" s="44"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="43" t="s">
+      <c r="H52" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I52" s="44"/>
-      <c r="J52" s="50" t="s">
+      <c r="I52" s="45"/>
+      <c r="J52" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="K52" s="51"/>
-      <c r="L52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="48"/>
       <c r="M52" s="7">
         <v>0.44</v>
       </c>
@@ -8672,28 +8883,28 @@
       <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="43" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="43" t="s">
+      <c r="D53" s="45"/>
+      <c r="E53" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="F53" s="44"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="43" t="s">
+      <c r="H53" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I53" s="44"/>
-      <c r="J53" s="50" t="s">
+      <c r="I53" s="45"/>
+      <c r="J53" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="K53" s="51"/>
-      <c r="L53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="48"/>
       <c r="M53" s="7">
         <v>0.23</v>
       </c>
@@ -8703,28 +8914,28 @@
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="43" t="s">
+      <c r="B54" s="45"/>
+      <c r="C54" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="47">
+      <c r="D54" s="45"/>
+      <c r="E54" s="49">
         <v>1994</v>
       </c>
-      <c r="F54" s="49"/>
+      <c r="F54" s="50"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="43" t="s">
+      <c r="H54" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I54" s="44"/>
-      <c r="J54" s="50" t="s">
+      <c r="I54" s="45"/>
+      <c r="J54" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="K54" s="51"/>
-      <c r="L54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="48"/>
       <c r="M54" s="7">
         <v>0.19</v>
       </c>
@@ -8734,28 +8945,28 @@
       <c r="O54" s="13"/>
     </row>
     <row r="55" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="43" t="s">
+      <c r="B55" s="45"/>
+      <c r="C55" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="47">
+      <c r="D55" s="45"/>
+      <c r="E55" s="49">
         <v>1994</v>
       </c>
-      <c r="F55" s="49"/>
+      <c r="F55" s="50"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="43" t="s">
+      <c r="H55" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I55" s="44"/>
-      <c r="J55" s="43" t="s">
+      <c r="I55" s="45"/>
+      <c r="J55" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="K55" s="53"/>
-      <c r="L55" s="44"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="45"/>
       <c r="M55" s="7">
         <v>0.2</v>
       </c>
@@ -8765,28 +8976,28 @@
       <c r="O55" s="10"/>
     </row>
     <row r="56" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="43" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="47">
+      <c r="D56" s="45"/>
+      <c r="E56" s="49">
         <v>1994</v>
       </c>
-      <c r="F56" s="49"/>
+      <c r="F56" s="50"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="43" t="s">
+      <c r="H56" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="I56" s="44"/>
-      <c r="J56" s="50" t="s">
+      <c r="I56" s="45"/>
+      <c r="J56" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="K56" s="51"/>
-      <c r="L56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="48"/>
       <c r="M56" s="5" t="s">
         <v>97</v>
       </c>
@@ -8796,28 +9007,28 @@
       <c r="O56" s="6"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="43" t="s">
+      <c r="B57" s="48"/>
+      <c r="C57" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="43" t="s">
+      <c r="D57" s="45"/>
+      <c r="E57" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="F57" s="44"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="43" t="s">
+      <c r="H57" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I57" s="44"/>
-      <c r="J57" s="47">
+      <c r="I57" s="45"/>
+      <c r="J57" s="49">
         <v>97</v>
       </c>
-      <c r="K57" s="48"/>
-      <c r="L57" s="49"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="50"/>
       <c r="M57" s="7">
         <v>0.23</v>
       </c>
@@ -8827,28 +9038,28 @@
       <c r="O57" s="10"/>
     </row>
     <row r="58" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="43" t="s">
+      <c r="B58" s="48"/>
+      <c r="C58" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="43" t="s">
+      <c r="D58" s="45"/>
+      <c r="E58" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="F58" s="44"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="43" t="s">
+      <c r="H58" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I58" s="44"/>
-      <c r="J58" s="47">
+      <c r="I58" s="45"/>
+      <c r="J58" s="49">
         <v>387</v>
       </c>
-      <c r="K58" s="48"/>
-      <c r="L58" s="49"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="50"/>
       <c r="M58" s="7">
         <v>0.11</v>
       </c>
@@ -8858,28 +9069,28 @@
       <c r="O58" s="10"/>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="43" t="s">
+      <c r="B59" s="45"/>
+      <c r="C59" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="47">
+      <c r="D59" s="45"/>
+      <c r="E59" s="49">
         <v>1997</v>
       </c>
-      <c r="F59" s="49"/>
+      <c r="F59" s="50"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="43" t="s">
+      <c r="H59" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I59" s="44"/>
-      <c r="J59" s="43" t="s">
+      <c r="I59" s="45"/>
+      <c r="J59" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="K59" s="53"/>
-      <c r="L59" s="44"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="45"/>
       <c r="M59" s="5" t="s">
         <v>97</v>
       </c>
@@ -8889,28 +9100,28 @@
       <c r="O59" s="13"/>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="43" t="s">
+      <c r="B60" s="45"/>
+      <c r="C60" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="50" t="s">
+      <c r="D60" s="45"/>
+      <c r="E60" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="F60" s="52"/>
+      <c r="F60" s="48"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="43" t="s">
+      <c r="H60" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I60" s="44"/>
-      <c r="J60" s="47">
+      <c r="I60" s="45"/>
+      <c r="J60" s="49">
         <v>164</v>
       </c>
-      <c r="K60" s="48"/>
-      <c r="L60" s="49"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="50"/>
       <c r="M60" s="7">
         <v>0.09</v>
       </c>
@@ -8920,28 +9131,28 @@
       <c r="O60" s="6"/>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="43" t="s">
+      <c r="B61" s="45"/>
+      <c r="C61" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="50" t="s">
+      <c r="D61" s="45"/>
+      <c r="E61" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="F61" s="52"/>
+      <c r="F61" s="48"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="43" t="s">
+      <c r="H61" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I61" s="44"/>
-      <c r="J61" s="47">
+      <c r="I61" s="45"/>
+      <c r="J61" s="49">
         <v>130</v>
       </c>
-      <c r="K61" s="48"/>
-      <c r="L61" s="49"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="50"/>
       <c r="M61" s="7">
         <v>0.18</v>
       </c>
@@ -8951,28 +9162,28 @@
       <c r="O61" s="6"/>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="43" t="s">
+      <c r="B62" s="45"/>
+      <c r="C62" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="50" t="s">
+      <c r="D62" s="45"/>
+      <c r="E62" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="F62" s="52"/>
+      <c r="F62" s="48"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="43" t="s">
+      <c r="H62" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="44"/>
-      <c r="J62" s="47">
+      <c r="I62" s="45"/>
+      <c r="J62" s="49">
         <v>176</v>
       </c>
-      <c r="K62" s="48"/>
-      <c r="L62" s="49"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="50"/>
       <c r="M62" s="7">
         <v>0.1</v>
       </c>
@@ -8982,28 +9193,28 @@
       <c r="O62" s="6"/>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="43" t="s">
+      <c r="B63" s="45"/>
+      <c r="C63" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="50" t="s">
+      <c r="D63" s="45"/>
+      <c r="E63" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="F63" s="52"/>
+      <c r="F63" s="48"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="43" t="s">
+      <c r="H63" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I63" s="44"/>
-      <c r="J63" s="54">
+      <c r="I63" s="45"/>
+      <c r="J63" s="53">
         <v>1782</v>
       </c>
-      <c r="K63" s="55"/>
-      <c r="L63" s="56"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="55"/>
       <c r="M63" s="7">
         <v>0.03</v>
       </c>
@@ -9013,28 +9224,28 @@
       <c r="O63" s="6"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="43" t="s">
+      <c r="B64" s="45"/>
+      <c r="C64" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="50" t="s">
+      <c r="D64" s="45"/>
+      <c r="E64" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="F64" s="52"/>
+      <c r="F64" s="48"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="43" t="s">
+      <c r="H64" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I64" s="44"/>
-      <c r="J64" s="47">
+      <c r="I64" s="45"/>
+      <c r="J64" s="49">
         <v>305</v>
       </c>
-      <c r="K64" s="48"/>
-      <c r="L64" s="49"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="50"/>
       <c r="M64" s="7">
         <v>0.08</v>
       </c>
@@ -9044,28 +9255,28 @@
       <c r="O64" s="6"/>
     </row>
     <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="43" t="s">
+      <c r="B65" s="45"/>
+      <c r="C65" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="50" t="s">
+      <c r="D65" s="45"/>
+      <c r="E65" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="F65" s="52"/>
+      <c r="F65" s="48"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="43" t="s">
+      <c r="H65" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I65" s="44"/>
-      <c r="J65" s="47">
+      <c r="I65" s="45"/>
+      <c r="J65" s="49">
         <v>232</v>
       </c>
-      <c r="K65" s="48"/>
-      <c r="L65" s="49"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="50"/>
       <c r="M65" s="7">
         <v>0.08</v>
       </c>
@@ -9075,28 +9286,28 @@
       <c r="O65" s="6"/>
     </row>
     <row r="66" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="43" t="s">
+      <c r="B66" s="45"/>
+      <c r="C66" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="43" t="s">
+      <c r="D66" s="45"/>
+      <c r="E66" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F66" s="44"/>
+      <c r="F66" s="45"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="43" t="s">
+      <c r="H66" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I66" s="44"/>
-      <c r="J66" s="43" t="s">
+      <c r="I66" s="45"/>
+      <c r="J66" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="K66" s="53"/>
-      <c r="L66" s="44"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="45"/>
       <c r="M66" s="7">
         <v>0.13</v>
       </c>
@@ -9106,28 +9317,28 @@
       <c r="O66" s="10"/>
     </row>
     <row r="67" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="43" t="s">
+      <c r="B67" s="45"/>
+      <c r="C67" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="D67" s="44"/>
-      <c r="E67" s="43" t="s">
+      <c r="D67" s="45"/>
+      <c r="E67" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F67" s="44"/>
+      <c r="F67" s="45"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="43" t="s">
+      <c r="H67" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I67" s="44"/>
-      <c r="J67" s="50" t="s">
+      <c r="I67" s="45"/>
+      <c r="J67" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="K67" s="51"/>
-      <c r="L67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="48"/>
       <c r="M67" s="7">
         <v>0.23</v>
       </c>
@@ -9137,28 +9348,28 @@
       <c r="O67" s="6"/>
     </row>
     <row r="68" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="43" t="s">
+      <c r="B68" s="45"/>
+      <c r="C68" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="43" t="s">
+      <c r="D68" s="45"/>
+      <c r="E68" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F68" s="44"/>
+      <c r="F68" s="45"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I68" s="44"/>
-      <c r="J68" s="50" t="s">
+      <c r="I68" s="45"/>
+      <c r="J68" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="K68" s="51"/>
-      <c r="L68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="48"/>
       <c r="M68" s="7">
         <v>0.43</v>
       </c>
@@ -9168,28 +9379,28 @@
       <c r="O68" s="6"/>
     </row>
     <row r="69" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="43" t="s">
+      <c r="B69" s="45"/>
+      <c r="C69" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="D69" s="44"/>
-      <c r="E69" s="43" t="s">
+      <c r="D69" s="45"/>
+      <c r="E69" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="F69" s="44"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I69" s="44"/>
-      <c r="J69" s="47">
+      <c r="I69" s="45"/>
+      <c r="J69" s="49">
         <v>28</v>
       </c>
-      <c r="K69" s="48"/>
-      <c r="L69" s="49"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="50"/>
       <c r="M69" s="7">
         <v>0.43</v>
       </c>
@@ -9199,28 +9410,28 @@
       <c r="O69" s="10"/>
     </row>
     <row r="70" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="43" t="s">
+      <c r="B70" s="48"/>
+      <c r="C70" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="43" t="s">
+      <c r="D70" s="45"/>
+      <c r="E70" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="F70" s="44"/>
+      <c r="F70" s="45"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="43" t="s">
+      <c r="H70" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I70" s="44"/>
-      <c r="J70" s="50" t="s">
+      <c r="I70" s="45"/>
+      <c r="J70" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="K70" s="51"/>
-      <c r="L70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="48"/>
       <c r="M70" s="7">
         <v>0.11</v>
       </c>
@@ -9230,28 +9441,28 @@
       <c r="O70" s="13"/>
     </row>
     <row r="71" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="43" t="s">
+      <c r="B71" s="45"/>
+      <c r="C71" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="43" t="s">
+      <c r="D71" s="45"/>
+      <c r="E71" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F71" s="44"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="43" t="s">
+      <c r="H71" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I71" s="44"/>
-      <c r="J71" s="43" t="s">
+      <c r="I71" s="45"/>
+      <c r="J71" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="K71" s="53"/>
-      <c r="L71" s="44"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="45"/>
       <c r="M71" s="7">
         <v>0.11</v>
       </c>
@@ -9261,28 +9472,28 @@
       <c r="O71" s="6"/>
     </row>
     <row r="72" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="43" t="s">
+      <c r="B72" s="45"/>
+      <c r="C72" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="44"/>
-      <c r="E72" s="47">
+      <c r="D72" s="45"/>
+      <c r="E72" s="49">
         <v>2001</v>
       </c>
-      <c r="F72" s="49"/>
+      <c r="F72" s="50"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="43" t="s">
+      <c r="H72" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I72" s="44"/>
-      <c r="J72" s="43" t="s">
+      <c r="I72" s="45"/>
+      <c r="J72" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="K72" s="53"/>
-      <c r="L72" s="44"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="45"/>
       <c r="M72" s="7">
         <v>0.1</v>
       </c>
@@ -9292,28 +9503,28 @@
       <c r="O72" s="10"/>
     </row>
     <row r="73" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="43" t="s">
+      <c r="B73" s="45"/>
+      <c r="C73" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="D73" s="44"/>
-      <c r="E73" s="47">
+      <c r="D73" s="45"/>
+      <c r="E73" s="49">
         <v>2001</v>
       </c>
-      <c r="F73" s="49"/>
+      <c r="F73" s="50"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="43" t="s">
+      <c r="H73" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I73" s="44"/>
-      <c r="J73" s="43" t="s">
+      <c r="I73" s="45"/>
+      <c r="J73" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="K73" s="53"/>
-      <c r="L73" s="44"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="45"/>
       <c r="M73" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9323,28 +9534,28 @@
       <c r="O73" s="10"/>
     </row>
     <row r="74" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="43" t="s">
+      <c r="B74" s="45"/>
+      <c r="C74" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="D74" s="44"/>
-      <c r="E74" s="47">
+      <c r="D74" s="45"/>
+      <c r="E74" s="49">
         <v>2001</v>
       </c>
-      <c r="F74" s="49"/>
+      <c r="F74" s="50"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="43" t="s">
+      <c r="H74" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I74" s="44"/>
-      <c r="J74" s="43" t="s">
+      <c r="I74" s="45"/>
+      <c r="J74" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="K74" s="53"/>
-      <c r="L74" s="44"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="45"/>
       <c r="M74" s="7">
         <v>0.12</v>
       </c>
@@ -9354,28 +9565,28 @@
       <c r="O74" s="10"/>
     </row>
     <row r="75" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="43" t="s">
+      <c r="B75" s="45"/>
+      <c r="C75" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="D75" s="44"/>
-      <c r="E75" s="47">
+      <c r="D75" s="45"/>
+      <c r="E75" s="49">
         <v>2001</v>
       </c>
-      <c r="F75" s="49"/>
+      <c r="F75" s="50"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="43" t="s">
+      <c r="H75" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I75" s="44"/>
-      <c r="J75" s="50" t="s">
+      <c r="I75" s="45"/>
+      <c r="J75" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="K75" s="51"/>
-      <c r="L75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="48"/>
       <c r="M75" s="7">
         <v>0.08</v>
       </c>
@@ -9385,28 +9596,28 @@
       <c r="O75" s="6"/>
     </row>
     <row r="76" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="43" t="s">
+      <c r="B76" s="45"/>
+      <c r="C76" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="D76" s="44"/>
-      <c r="E76" s="47">
+      <c r="D76" s="45"/>
+      <c r="E76" s="49">
         <v>2001</v>
       </c>
-      <c r="F76" s="49"/>
+      <c r="F76" s="50"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="43" t="s">
+      <c r="H76" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I76" s="44"/>
-      <c r="J76" s="50" t="s">
+      <c r="I76" s="45"/>
+      <c r="J76" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="K76" s="51"/>
-      <c r="L76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="48"/>
       <c r="M76" s="7">
         <v>0.1</v>
       </c>
@@ -9416,28 +9627,28 @@
       <c r="O76" s="6"/>
     </row>
     <row r="77" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="43" t="s">
+      <c r="B77" s="45"/>
+      <c r="C77" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="D77" s="44"/>
-      <c r="E77" s="43" t="s">
+      <c r="D77" s="45"/>
+      <c r="E77" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="F77" s="44"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="43" t="s">
+      <c r="H77" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I77" s="44"/>
-      <c r="J77" s="43" t="s">
+      <c r="I77" s="45"/>
+      <c r="J77" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="K77" s="53"/>
-      <c r="L77" s="44"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="45"/>
       <c r="M77" s="7">
         <v>0.15</v>
       </c>
@@ -9447,28 +9658,28 @@
       <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="43" t="s">
+      <c r="B78" s="45"/>
+      <c r="C78" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="D78" s="44"/>
-      <c r="E78" s="43" t="s">
+      <c r="D78" s="45"/>
+      <c r="E78" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F78" s="44"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="43" t="s">
+      <c r="H78" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I78" s="44"/>
-      <c r="J78" s="43" t="s">
+      <c r="I78" s="45"/>
+      <c r="J78" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="K78" s="53"/>
-      <c r="L78" s="44"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="45"/>
       <c r="M78" s="7">
         <v>0.13</v>
       </c>
@@ -9478,28 +9689,28 @@
       <c r="O78" s="10"/>
     </row>
     <row r="79" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="43" t="s">
+      <c r="B79" s="45"/>
+      <c r="C79" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="D79" s="44"/>
-      <c r="E79" s="43" t="s">
+      <c r="D79" s="45"/>
+      <c r="E79" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="44"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="43" t="s">
+      <c r="H79" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I79" s="44"/>
-      <c r="J79" s="43" t="s">
+      <c r="I79" s="45"/>
+      <c r="J79" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="K79" s="53"/>
-      <c r="L79" s="44"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="45"/>
       <c r="M79" s="7">
         <v>0.67</v>
       </c>
@@ -9509,28 +9720,28 @@
       <c r="O79" s="13"/>
     </row>
     <row r="80" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="43" t="s">
+      <c r="B80" s="45"/>
+      <c r="C80" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="D80" s="44"/>
-      <c r="E80" s="43" t="s">
+      <c r="D80" s="45"/>
+      <c r="E80" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F80" s="44"/>
+      <c r="F80" s="45"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="43" t="s">
+      <c r="H80" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I80" s="44"/>
-      <c r="J80" s="50" t="s">
+      <c r="I80" s="45"/>
+      <c r="J80" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="K80" s="51"/>
-      <c r="L80" s="52"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="48"/>
       <c r="M80" s="7">
         <v>0.35</v>
       </c>
@@ -9540,28 +9751,28 @@
       <c r="O80" s="13"/>
     </row>
     <row r="81" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="B81" s="52"/>
-      <c r="C81" s="43" t="s">
+      <c r="B81" s="48"/>
+      <c r="C81" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="D81" s="44"/>
-      <c r="E81" s="43" t="s">
+      <c r="D81" s="45"/>
+      <c r="E81" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="F81" s="44"/>
+      <c r="F81" s="45"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="43" t="s">
+      <c r="H81" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I81" s="44"/>
-      <c r="J81" s="47">
+      <c r="I81" s="45"/>
+      <c r="J81" s="49">
         <v>225</v>
       </c>
-      <c r="K81" s="48"/>
-      <c r="L81" s="49"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="50"/>
       <c r="M81" s="7">
         <v>0.34</v>
       </c>
@@ -9571,28 +9782,28 @@
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="50" t="s">
+      <c r="A82" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="52"/>
-      <c r="C82" s="43" t="s">
+      <c r="B82" s="48"/>
+      <c r="C82" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="D82" s="44"/>
-      <c r="E82" s="43" t="s">
+      <c r="D82" s="45"/>
+      <c r="E82" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="F82" s="44"/>
+      <c r="F82" s="45"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="43" t="s">
+      <c r="H82" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I82" s="44"/>
-      <c r="J82" s="50" t="s">
+      <c r="I82" s="45"/>
+      <c r="J82" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="K82" s="51"/>
-      <c r="L82" s="52"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="48"/>
       <c r="M82" s="7">
         <v>0.12</v>
       </c>
@@ -9602,28 +9813,28 @@
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="43" t="s">
+      <c r="B83" s="45"/>
+      <c r="C83" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="D83" s="44"/>
-      <c r="E83" s="43" t="s">
+      <c r="D83" s="45"/>
+      <c r="E83" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F83" s="44"/>
+      <c r="F83" s="45"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="43" t="s">
+      <c r="H83" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I83" s="44"/>
-      <c r="J83" s="47">
+      <c r="I83" s="45"/>
+      <c r="J83" s="49">
         <v>138</v>
       </c>
-      <c r="K83" s="48"/>
-      <c r="L83" s="49"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="50"/>
       <c r="M83" s="7">
         <v>0.28000000000000003</v>
       </c>
@@ -9633,28 +9844,28 @@
       <c r="O83" s="10"/>
     </row>
     <row r="84" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="B84" s="44"/>
-      <c r="C84" s="43" t="s">
+      <c r="B84" s="45"/>
+      <c r="C84" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="D84" s="44"/>
-      <c r="E84" s="43" t="s">
+      <c r="D84" s="45"/>
+      <c r="E84" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="F84" s="44"/>
+      <c r="F84" s="45"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="43" t="s">
+      <c r="H84" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I84" s="44"/>
-      <c r="J84" s="43" t="s">
+      <c r="I84" s="45"/>
+      <c r="J84" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="K84" s="53"/>
-      <c r="L84" s="44"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="45"/>
       <c r="M84" s="7">
         <v>0.1</v>
       </c>
@@ -9664,28 +9875,28 @@
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="43" t="s">
+      <c r="B85" s="45"/>
+      <c r="C85" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="D85" s="44"/>
-      <c r="E85" s="43" t="s">
+      <c r="D85" s="45"/>
+      <c r="E85" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="F85" s="44"/>
+      <c r="F85" s="45"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="43" t="s">
+      <c r="H85" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I85" s="44"/>
-      <c r="J85" s="43" t="s">
+      <c r="I85" s="45"/>
+      <c r="J85" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="K85" s="53"/>
-      <c r="L85" s="44"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="45"/>
       <c r="M85" s="7">
         <v>0.22</v>
       </c>
@@ -9695,28 +9906,28 @@
       <c r="O85" s="6"/>
     </row>
     <row r="86" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="43" t="s">
+      <c r="B86" s="45"/>
+      <c r="C86" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="D86" s="44"/>
-      <c r="E86" s="43" t="s">
+      <c r="D86" s="45"/>
+      <c r="E86" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="F86" s="44"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="43" t="s">
+      <c r="H86" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I86" s="44"/>
-      <c r="J86" s="43" t="s">
+      <c r="I86" s="45"/>
+      <c r="J86" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="K86" s="53"/>
-      <c r="L86" s="44"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="45"/>
       <c r="M86" s="7">
         <v>0.13</v>
       </c>
@@ -9726,28 +9937,28 @@
       <c r="O86" s="6"/>
     </row>
     <row r="87" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="43" t="s">
+      <c r="A87" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="43" t="s">
+      <c r="B87" s="45"/>
+      <c r="C87" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="D87" s="44"/>
-      <c r="E87" s="43" t="s">
+      <c r="D87" s="45"/>
+      <c r="E87" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="F87" s="44"/>
+      <c r="F87" s="45"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="43" t="s">
+      <c r="H87" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I87" s="44"/>
-      <c r="J87" s="50" t="s">
+      <c r="I87" s="45"/>
+      <c r="J87" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="K87" s="51"/>
-      <c r="L87" s="52"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="48"/>
       <c r="M87" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -9757,28 +9968,28 @@
       <c r="O87" s="13"/>
     </row>
     <row r="88" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="43" t="s">
+      <c r="B88" s="45"/>
+      <c r="C88" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="D88" s="44"/>
-      <c r="E88" s="43" t="s">
+      <c r="D88" s="45"/>
+      <c r="E88" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="F88" s="44"/>
+      <c r="F88" s="45"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="43" t="s">
+      <c r="H88" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I88" s="44"/>
-      <c r="J88" s="47">
+      <c r="I88" s="45"/>
+      <c r="J88" s="49">
         <v>5</v>
       </c>
-      <c r="K88" s="48"/>
-      <c r="L88" s="49"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="50"/>
       <c r="M88" s="7">
         <v>0.2</v>
       </c>
@@ -9788,28 +9999,28 @@
       <c r="O88" s="10"/>
     </row>
     <row r="89" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="43" t="s">
+      <c r="A89" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="43" t="s">
+      <c r="B89" s="45"/>
+      <c r="C89" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="D89" s="44"/>
-      <c r="E89" s="43" t="s">
+      <c r="D89" s="45"/>
+      <c r="E89" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="F89" s="44"/>
+      <c r="F89" s="45"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="43" t="s">
+      <c r="H89" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I89" s="44"/>
-      <c r="J89" s="43" t="s">
+      <c r="I89" s="45"/>
+      <c r="J89" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="K89" s="53"/>
-      <c r="L89" s="44"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="45"/>
       <c r="M89" s="7">
         <v>0.75</v>
       </c>
@@ -9819,28 +10030,28 @@
       <c r="O89" s="10"/>
     </row>
     <row r="90" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="43" t="s">
+      <c r="A90" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="43" t="s">
+      <c r="B90" s="45"/>
+      <c r="C90" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="D90" s="44"/>
-      <c r="E90" s="43" t="s">
+      <c r="D90" s="45"/>
+      <c r="E90" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="F90" s="44"/>
+      <c r="F90" s="45"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="43" t="s">
+      <c r="H90" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I90" s="44"/>
-      <c r="J90" s="43" t="s">
+      <c r="I90" s="45"/>
+      <c r="J90" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="K90" s="53"/>
-      <c r="L90" s="44"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="45"/>
       <c r="M90" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -9850,28 +10061,28 @@
       <c r="O90" s="6"/>
     </row>
     <row r="91" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="43" t="s">
+      <c r="A91" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="43" t="s">
+      <c r="B91" s="45"/>
+      <c r="C91" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="D91" s="44"/>
-      <c r="E91" s="43" t="s">
+      <c r="D91" s="45"/>
+      <c r="E91" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="F91" s="44"/>
+      <c r="F91" s="45"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="43" t="s">
+      <c r="H91" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I91" s="44"/>
-      <c r="J91" s="50" t="s">
+      <c r="I91" s="45"/>
+      <c r="J91" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="K91" s="51"/>
-      <c r="L91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="48"/>
       <c r="M91" s="7">
         <v>0.09</v>
       </c>
@@ -9881,28 +10092,28 @@
       <c r="O91" s="6"/>
     </row>
     <row r="92" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="43" t="s">
+      <c r="B92" s="45"/>
+      <c r="C92" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="D92" s="44"/>
-      <c r="E92" s="43" t="s">
+      <c r="D92" s="45"/>
+      <c r="E92" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="F92" s="44"/>
+      <c r="F92" s="45"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="43" t="s">
+      <c r="H92" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I92" s="44"/>
-      <c r="J92" s="43" t="s">
+      <c r="I92" s="45"/>
+      <c r="J92" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="K92" s="53"/>
-      <c r="L92" s="44"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="45"/>
       <c r="M92" s="7">
         <v>0.13</v>
       </c>
@@ -9912,28 +10123,28 @@
       <c r="O92" s="6"/>
     </row>
     <row r="93" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="43" t="s">
+      <c r="A93" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="43" t="s">
+      <c r="B93" s="45"/>
+      <c r="C93" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="43" t="s">
+      <c r="D93" s="45"/>
+      <c r="E93" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="F93" s="44"/>
+      <c r="F93" s="45"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="43" t="s">
+      <c r="H93" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I93" s="44"/>
-      <c r="J93" s="50" t="s">
+      <c r="I93" s="45"/>
+      <c r="J93" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="K93" s="51"/>
-      <c r="L93" s="52"/>
+      <c r="K93" s="52"/>
+      <c r="L93" s="48"/>
       <c r="M93" s="7">
         <v>0.1</v>
       </c>
@@ -9943,28 +10154,28 @@
       <c r="O93" s="6"/>
     </row>
     <row r="94" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="43" t="s">
+      <c r="A94" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="43" t="s">
+      <c r="B94" s="45"/>
+      <c r="C94" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="D94" s="44"/>
-      <c r="E94" s="45" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="F94" s="46"/>
+      <c r="F94" s="58"/>
       <c r="G94" s="14"/>
-      <c r="H94" s="43" t="s">
+      <c r="H94" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I94" s="44"/>
-      <c r="J94" s="47">
+      <c r="I94" s="45"/>
+      <c r="J94" s="49">
         <v>91</v>
       </c>
-      <c r="K94" s="48"/>
-      <c r="L94" s="49"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="50"/>
       <c r="M94" s="7">
         <v>0.51</v>
       </c>
@@ -9974,23 +10185,23 @@
       <c r="O94" s="13"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" s="42" t="s">
+      <c r="A95" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42"/>
-      <c r="M95" s="42"/>
-      <c r="N95" s="42"/>
-      <c r="O95" s="42"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="56"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
@@ -11277,66 +11488,402 @@
     <filterColumn colId="10" showButton="0"/>
   </autoFilter>
   <mergeCells count="471">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A95:O95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:L17"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
@@ -11352,408 +11899,72 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="A95:O95"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B24AB59-F016-7243-A60F-A01DED3EDDB5}">
   <dimension ref="A1:M26"/>
   <sheetViews>

--- a/applications/SHIELD/support/contactTracing1.xlsx
+++ b/applications/SHIELD/support/contactTracing1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/pkasaie1_jh_edu/Documents/SHIELDR01/Simulation/code/jheem_analyses/applications/SHIELD/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{B3072B77-8F0F-2842-9A51-5929F5064928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FAA22F0-58F7-1B4F-803A-0E1F08DDDD43}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{B3072B77-8F0F-2842-9A51-5929F5064928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{059BDC19-FD43-9943-BE0B-F4BA7BC7720A}"/>
   <bookViews>
     <workbookView xWindow="84240" yWindow="4760" windowWidth="34560" windowHeight="17440" activeTab="1" xr2:uid="{B47A3F01-3C2A-774F-B5A4-9BB5BDC5E9A9}"/>
   </bookViews>
@@ -7053,7 +7053,7 @@
   <dimension ref="E6:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/applications/SHIELD/support/contactTracing1.xlsx
+++ b/applications/SHIELD/support/contactTracing1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/pkasaie1_jh_edu/Documents/SHIELDR01/Simulation/code/jheem_analyses/applications/SHIELD/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{B3072B77-8F0F-2842-9A51-5929F5064928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{059BDC19-FD43-9943-BE0B-F4BA7BC7720A}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{B3072B77-8F0F-2842-9A51-5929F5064928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92532CF5-6CFD-3544-983D-B9954EC080D6}"/>
   <bookViews>
-    <workbookView xWindow="84240" yWindow="4760" windowWidth="34560" windowHeight="17440" activeTab="1" xr2:uid="{B47A3F01-3C2A-774F-B5A4-9BB5BDC5E9A9}"/>
+    <workbookView xWindow="49680" yWindow="5560" windowWidth="34560" windowHeight="17440" activeTab="1" xr2:uid="{B47A3F01-3C2A-774F-B5A4-9BB5BDC5E9A9}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -7053,7 +7053,7 @@
   <dimension ref="E6:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
